--- a/도서대여프로젝트/샘플-도서정보(2021-04-29).xlsx
+++ b/도서대여프로젝트/샘플-도서정보(2021-04-29).xlsx
@@ -3294,7 +3294,7 @@
       </c>
       <c r="D2" s="7" t="str">
         <f ca="1">"A"&amp;TEXT(RANDBETWEEN(1,34),"0000")</f>
-        <v>A0015</v>
+        <v>A0023</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>674</v>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="D3" s="7" t="str">
         <f t="shared" ref="D3:D31" ca="1" si="0">"A"&amp;TEXT(RANDBETWEEN(1,34),"0000")</f>
-        <v>A0021</v>
+        <v>A0004</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>675</v>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="D4" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0014</v>
+        <v>A0028</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>676</v>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="D5" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0003</v>
+        <v>A0028</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>676</v>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="D6" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0031</v>
+        <v>A0007</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>676</v>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="D7" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0010</v>
+        <v>A0026</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>676</v>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="D8" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0003</v>
+        <v>A0018</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>677</v>
@@ -3483,7 +3483,7 @@
       </c>
       <c r="D9" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0025</v>
+        <v>A0012</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>678</v>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="D10" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0019</v>
+        <v>A0027</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>679</v>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="D11" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0028</v>
+        <v>A0013</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>680</v>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="D12" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0023</v>
+        <v>A0033</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>681</v>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="D13" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0029</v>
+        <v>A0034</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>682</v>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="D14" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0015</v>
+        <v>A0029</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>683</v>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="D15" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0021</v>
+        <v>A0033</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>684</v>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="D16" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0020</v>
+        <v>A0003</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>685</v>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="D17" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0018</v>
+        <v>A0003</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>686</v>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="D18" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0007</v>
+        <v>A0024</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>687</v>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="D19" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0020</v>
+        <v>A0032</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>688</v>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="D20" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0009</v>
+        <v>A0031</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>689</v>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="D21" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0023</v>
+        <v>A0006</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>690</v>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="D22" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0019</v>
+        <v>A0008</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>691</v>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="D23" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0024</v>
+        <v>A0005</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>692</v>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="D24" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0015</v>
+        <v>A0022</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>693</v>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="D25" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0020</v>
+        <v>A0029</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>694</v>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="D26" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0002</v>
+        <v>A0022</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>695</v>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="D27" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0021</v>
+        <v>A0025</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>696</v>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="D28" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0028</v>
+        <v>A0024</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>697</v>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="D29" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0019</v>
+        <v>A0017</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>698</v>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="D30" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0030</v>
+        <v>A0002</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>699</v>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="D31" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0019</v>
+        <v>A0028</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>700</v>
